--- a/data_year/zb/批发和零售业/连锁零售企业/按业态分连锁零售企业年末从业人数.xlsx
+++ b/data_year/zb/批发和零售业/连锁零售企业/按业态分连锁零售企业年末从业人数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,758 +498,515 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14.8637</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>2.3158</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+        <v>16.9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7.5</v>
+      </c>
       <c r="F2" t="n">
-        <v>1.4503</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>1.4</v>
+      </c>
+      <c r="G2" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.7</v>
+      </c>
       <c r="L2" t="n">
-        <v>10.8697</v>
+        <v>25</v>
       </c>
       <c r="M2" t="n">
-        <v>31.0079</v>
+        <v>49.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.5912</v>
+        <v>96.3436</v>
       </c>
       <c r="C3" t="n">
-        <v>2.7272</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+        <v>16.7492</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.9354</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.0977</v>
+      </c>
       <c r="F3" t="n">
-        <v>0.2283</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>2.5142</v>
+      </c>
+      <c r="G3" t="n">
+        <v>31.656</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0535</v>
+      </c>
+      <c r="I3" t="n">
+        <v>33.2818</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.7831</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.8109</v>
+      </c>
       <c r="L3" t="n">
-        <v>12.164</v>
+        <v>26.5355</v>
       </c>
       <c r="M3" t="n">
-        <v>44.4362</v>
+        <v>58.9505</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.7156</v>
+        <v>93.79049999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>3.2588</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+        <v>17.4316</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.3981</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6.9518</v>
+      </c>
       <c r="F4" t="n">
-        <v>0.09180000000000001</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+        <v>8.5905</v>
+      </c>
+      <c r="G4" t="n">
+        <v>25.9782</v>
+      </c>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>53.1595</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.3853</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.4403</v>
+      </c>
       <c r="L4" t="n">
-        <v>13.9048</v>
+        <v>25.5129</v>
       </c>
       <c r="M4" t="n">
-        <v>51.0827</v>
+        <v>48.653</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66.3096</v>
+        <v>93.49469999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>5.9978</v>
+        <v>16.1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3048</v>
+        <v>1.6225</v>
       </c>
       <c r="E5" t="n">
-        <v>6.6961</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
+        <v>7.373</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.5724</v>
+      </c>
       <c r="G5" t="n">
-        <v>25.8113</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+        <v>28.6204</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.1161</v>
+      </c>
+      <c r="I5" t="n">
+        <v>55.6364</v>
+      </c>
       <c r="J5" t="n">
-        <v>1.7417</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>0.3603</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.3027</v>
+      </c>
       <c r="L5" t="n">
-        <v>18.1182</v>
+        <v>27.6796</v>
       </c>
       <c r="M5" t="n">
-        <v>60.9396</v>
+        <v>46.7246</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>80.57640000000001</v>
+        <v>94.3137</v>
       </c>
       <c r="C6" t="n">
-        <v>9.3645</v>
+        <v>14.5645</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3795</v>
+        <v>1.526</v>
       </c>
       <c r="E6" t="n">
-        <v>7.8929</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
+        <v>7.8135</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4.5091</v>
+      </c>
       <c r="G6" t="n">
-        <v>17.7808</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+        <v>29.7328</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.378</v>
+      </c>
+      <c r="I6" t="n">
+        <v>56.1832</v>
+      </c>
       <c r="J6" t="n">
-        <v>0.8268</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>0.401</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2093</v>
+      </c>
       <c r="L6" t="n">
-        <v>17.7147</v>
+        <v>25.8058</v>
       </c>
       <c r="M6" t="n">
-        <v>65.4477</v>
+        <v>44.463</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.9755</v>
+        <v>92.8069</v>
       </c>
       <c r="C7" t="n">
-        <v>10.8923</v>
+        <v>14.1261</v>
       </c>
       <c r="D7" t="n">
-        <v>1.211</v>
+        <v>1.4554</v>
       </c>
       <c r="E7" t="n">
-        <v>9.2721</v>
+        <v>8.351699999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5236</v>
+        <v>4.5581</v>
       </c>
       <c r="G7" t="n">
-        <v>22.49</v>
+        <v>28.9844</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0355</v>
+        <v>0.4048</v>
       </c>
       <c r="I7" t="n">
-        <v>30.5259</v>
+        <v>55.9499</v>
       </c>
       <c r="J7" t="n">
-        <v>1.0379</v>
+        <v>0.2901</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7448</v>
+        <v>0.2139</v>
       </c>
       <c r="L7" t="n">
-        <v>15.9171</v>
+        <v>26.3846</v>
       </c>
       <c r="M7" t="n">
-        <v>37.5633</v>
+        <v>43.5364</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>74.4764</v>
+        <v>90.0059</v>
       </c>
       <c r="C8" t="n">
-        <v>12.4207</v>
+        <v>17.5938</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3092</v>
+        <v>1.2481</v>
       </c>
       <c r="E8" t="n">
-        <v>9.7858</v>
+        <v>8.4208</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5716</v>
+        <v>5.0191</v>
       </c>
       <c r="G8" t="n">
-        <v>23.8823</v>
+        <v>27.8277</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0357</v>
+        <v>0.3749</v>
       </c>
       <c r="I8" t="n">
-        <v>35.8215</v>
+        <v>53.5472</v>
       </c>
       <c r="J8" t="n">
-        <v>1.2169</v>
+        <v>0.2688</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9432</v>
+        <v>0.2047</v>
       </c>
       <c r="L8" t="n">
-        <v>18.5307</v>
+        <v>26.3279</v>
       </c>
       <c r="M8" t="n">
-        <v>41.9659</v>
+        <v>41.9808</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>75.28919999999999</v>
+        <v>84.79519999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>16.0642</v>
+        <v>17.3819</v>
       </c>
       <c r="D9" t="n">
-        <v>1.4545</v>
+        <v>1.3174</v>
       </c>
       <c r="E9" t="n">
-        <v>9.2789</v>
+        <v>8.9922</v>
       </c>
       <c r="F9" t="n">
-        <v>1.5559</v>
+        <v>4.7199</v>
       </c>
       <c r="G9" t="n">
-        <v>26.0052</v>
+        <v>24.5111</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1028</v>
+        <v>0.3979</v>
       </c>
       <c r="I9" t="n">
-        <v>32.6643</v>
+        <v>46.9937</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9479</v>
+        <v>0.259</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7979000000000001</v>
+        <v>0.1613</v>
       </c>
       <c r="L9" t="n">
-        <v>23.8641</v>
+        <v>27.9207</v>
       </c>
       <c r="M9" t="n">
-        <v>48.8642</v>
+        <v>41.9779</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>83.09999999999999</v>
+        <v>88.68049999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>16.9</v>
+        <v>23.3913</v>
       </c>
       <c r="D10" t="n">
-        <v>1.2</v>
+        <v>1.3136</v>
       </c>
       <c r="E10" t="n">
-        <v>7.5</v>
+        <v>10.0461</v>
       </c>
       <c r="F10" t="n">
-        <v>1.4</v>
+        <v>4.2063</v>
       </c>
       <c r="G10" t="n">
-        <v>28.5</v>
+        <v>23.8066</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1</v>
+        <v>0.4195</v>
       </c>
       <c r="I10" t="n">
-        <v>38.6</v>
+        <v>45.1439</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7</v>
+        <v>0.2289</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7</v>
+        <v>0.0939</v>
       </c>
       <c r="L10" t="n">
-        <v>25</v>
+        <v>25.1221</v>
       </c>
       <c r="M10" t="n">
-        <v>49.9</v>
+        <v>40.3484</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>96.3436</v>
+        <v>79.7176</v>
       </c>
       <c r="C11" t="n">
-        <v>16.7492</v>
+        <v>25.1137</v>
       </c>
       <c r="D11" t="n">
-        <v>5.9354</v>
+        <v>1.3146</v>
       </c>
       <c r="E11" t="n">
-        <v>7.0977</v>
+        <v>10.1222</v>
       </c>
       <c r="F11" t="n">
-        <v>2.5142</v>
+        <v>2.5857</v>
       </c>
       <c r="G11" t="n">
-        <v>31.656</v>
+        <v>23.5521</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0535</v>
+        <v>0.3679</v>
       </c>
       <c r="I11" t="n">
-        <v>33.2818</v>
+        <v>48.2408</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7831</v>
+        <v>0.2158</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8109</v>
+        <v>0.0958</v>
       </c>
       <c r="L11" t="n">
-        <v>26.5355</v>
+        <v>20.3777</v>
       </c>
       <c r="M11" t="n">
-        <v>58.9505</v>
+        <v>38.4552</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>93.79049999999999</v>
+        <v>80.3554</v>
       </c>
       <c r="C12" t="n">
-        <v>17.4316</v>
+        <v>24.4501</v>
       </c>
       <c r="D12" t="n">
-        <v>1.3981</v>
+        <v>1.2815</v>
       </c>
       <c r="E12" t="n">
-        <v>6.9518</v>
+        <v>9.7775</v>
       </c>
       <c r="F12" t="n">
-        <v>8.5905</v>
+        <v>2.196</v>
       </c>
       <c r="G12" t="n">
-        <v>25.9782</v>
-      </c>
-      <c r="H12" t="inlineStr"/>
+        <v>22.6217</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.3552</v>
+      </c>
       <c r="I12" t="n">
-        <v>53.1595</v>
+        <v>47.2676</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3853</v>
+        <v>0.1288</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4403</v>
+        <v>0.1</v>
       </c>
       <c r="L12" t="n">
-        <v>25.5129</v>
+        <v>19.4861</v>
       </c>
       <c r="M12" t="n">
-        <v>48.653</v>
+        <v>34.8601</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.49469999999999</v>
+        <v>84.46429999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>16.1</v>
+        <v>24.1975</v>
       </c>
       <c r="D13" t="n">
-        <v>1.6225</v>
+        <v>1.4032</v>
       </c>
       <c r="E13" t="n">
-        <v>7.373</v>
+        <v>10.3181</v>
       </c>
       <c r="F13" t="n">
-        <v>6.5724</v>
+        <v>2.923</v>
       </c>
       <c r="G13" t="n">
-        <v>28.6204</v>
+        <v>22.4647</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1161</v>
+        <v>0.2317</v>
       </c>
       <c r="I13" t="n">
-        <v>55.6364</v>
+        <v>43.8725</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3603</v>
+        <v>0.1126</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3027</v>
+        <v>0.0613</v>
       </c>
       <c r="L13" t="n">
-        <v>27.6796</v>
+        <v>18.2249</v>
       </c>
       <c r="M13" t="n">
-        <v>46.7246</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>94.3137</v>
-      </c>
-      <c r="C14" t="n">
-        <v>14.5645</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.526</v>
-      </c>
-      <c r="E14" t="n">
-        <v>7.8135</v>
-      </c>
-      <c r="F14" t="n">
-        <v>4.5091</v>
-      </c>
-      <c r="G14" t="n">
-        <v>29.7328</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.378</v>
-      </c>
-      <c r="I14" t="n">
-        <v>56.1832</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.401</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.2093</v>
-      </c>
-      <c r="L14" t="n">
-        <v>25.8058</v>
-      </c>
-      <c r="M14" t="n">
-        <v>44.463</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>92.8069</v>
-      </c>
-      <c r="C15" t="n">
-        <v>14.1261</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.4554</v>
-      </c>
-      <c r="E15" t="n">
-        <v>8.351699999999999</v>
-      </c>
-      <c r="F15" t="n">
-        <v>4.5581</v>
-      </c>
-      <c r="G15" t="n">
-        <v>28.9844</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.4048</v>
-      </c>
-      <c r="I15" t="n">
-        <v>55.9499</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.2901</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.2139</v>
-      </c>
-      <c r="L15" t="n">
-        <v>26.3846</v>
-      </c>
-      <c r="M15" t="n">
-        <v>43.5364</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>90.0059</v>
-      </c>
-      <c r="C16" t="n">
-        <v>17.5938</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.2481</v>
-      </c>
-      <c r="E16" t="n">
-        <v>8.4208</v>
-      </c>
-      <c r="F16" t="n">
-        <v>5.0191</v>
-      </c>
-      <c r="G16" t="n">
-        <v>27.8277</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.3749</v>
-      </c>
-      <c r="I16" t="n">
-        <v>53.5472</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.2688</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2047</v>
-      </c>
-      <c r="L16" t="n">
-        <v>26.3279</v>
-      </c>
-      <c r="M16" t="n">
-        <v>41.9808</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>84.79519999999999</v>
-      </c>
-      <c r="C17" t="n">
-        <v>17.3819</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.3174</v>
-      </c>
-      <c r="E17" t="n">
-        <v>8.9922</v>
-      </c>
-      <c r="F17" t="n">
-        <v>4.7199</v>
-      </c>
-      <c r="G17" t="n">
-        <v>24.5111</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.3979</v>
-      </c>
-      <c r="I17" t="n">
-        <v>46.9937</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.259</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1613</v>
-      </c>
-      <c r="L17" t="n">
-        <v>27.9207</v>
-      </c>
-      <c r="M17" t="n">
-        <v>41.9779</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>88.68049999999999</v>
-      </c>
-      <c r="C18" t="n">
-        <v>23.3913</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.3136</v>
-      </c>
-      <c r="E18" t="n">
-        <v>10.0461</v>
-      </c>
-      <c r="F18" t="n">
-        <v>4.2063</v>
-      </c>
-      <c r="G18" t="n">
-        <v>23.8066</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.4195</v>
-      </c>
-      <c r="I18" t="n">
-        <v>45.1439</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.2289</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.0939</v>
-      </c>
-      <c r="L18" t="n">
-        <v>25.1221</v>
-      </c>
-      <c r="M18" t="n">
-        <v>40.3484</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>79.7176</v>
-      </c>
-      <c r="C19" t="n">
-        <v>25.1137</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.3146</v>
-      </c>
-      <c r="E19" t="n">
-        <v>10.1222</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2.5857</v>
-      </c>
-      <c r="G19" t="n">
-        <v>23.5521</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.3679</v>
-      </c>
-      <c r="I19" t="n">
-        <v>48.2408</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.2158</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.0958</v>
-      </c>
-      <c r="L19" t="n">
-        <v>20.3777</v>
-      </c>
-      <c r="M19" t="n">
-        <v>38.4552</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>80.3554</v>
-      </c>
-      <c r="C20" t="n">
-        <v>24.4501</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.2815</v>
-      </c>
-      <c r="E20" t="n">
-        <v>9.7775</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2.196</v>
-      </c>
-      <c r="G20" t="n">
-        <v>22.6217</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.3552</v>
-      </c>
-      <c r="I20" t="n">
-        <v>47.2676</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.1288</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L20" t="n">
-        <v>19.4861</v>
-      </c>
-      <c r="M20" t="n">
-        <v>34.8601</v>
+        <v>35.8453</v>
       </c>
     </row>
   </sheetData>
